--- a/assets/calculadora_spreads.xlsx
+++ b/assets/calculadora_spreads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Documentos\Git\global-markets-i\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F42AEE-3CBE-477C-87E6-D8F3F86D67FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4EDE0-F88A-4D21-9D54-82510EAC2B90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>fix</t>
   </si>
@@ -44,15 +44,6 @@
     <t>val</t>
   </si>
   <si>
-    <t>fra_hoy</t>
-  </si>
-  <si>
-    <t>fra_hoy_rank</t>
-  </si>
-  <si>
-    <t>fra_hist_rank</t>
-  </si>
-  <si>
     <t>extremely rich !</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
   </si>
   <si>
     <t>long leg</t>
-  </si>
-  <si>
-    <t>net</t>
   </si>
   <si>
     <t>neutral</t>
@@ -164,13 +152,7 @@
     </r>
   </si>
   <si>
-    <t>22/100</t>
-  </si>
-  <si>
     <t>22/101</t>
-  </si>
-  <si>
-    <t>80/100</t>
   </si>
   <si>
     <t>95/100</t>
@@ -393,6 +375,30 @@
   <si>
     <t>spot</t>
   </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>3-4-5 jul</t>
+  </si>
+  <si>
+    <t>8-9-10 ago</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>fra-r-his</t>
+  </si>
+  <si>
+    <t>fra-r-tod</t>
+  </si>
+  <si>
+    <t>ptos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -400,10 +406,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +475,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -589,17 +603,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,9 +617,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -627,8 +634,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -1809,7 +1825,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F9D23A-225D-4525-A5AD-97F36F163847}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,274 +2109,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:S14"/>
+  <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="4" max="4" width="9.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11.578125" customWidth="1"/>
     <col min="15" max="15" width="5.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="M1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="22">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="22">
         <v>5</v>
       </c>
+      <c r="I2" s="22">
+        <v>6</v>
+      </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="16">
-        <v>98</v>
-      </c>
-      <c r="E3" s="8">
-        <f ca="1">+TODAY()+D3</f>
-        <v>43753</v>
-      </c>
-      <c r="F3" s="9">
-        <f ca="1">+E3+1</f>
-        <v>43754</v>
-      </c>
-      <c r="G3" s="9">
-        <f ca="1">+F3+1</f>
-        <v>43755</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.78</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>0.05</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>200</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="19">
+        <f>+F4-F3</f>
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2.95</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" s="2"/>
+      <c r="N8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="2"/>
+      <c r="N9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="2"/>
+      <c r="N10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16">
-        <v>360</v>
-      </c>
-      <c r="E4" s="8">
-        <f ca="1">+TODAY()+D4</f>
-        <v>44015</v>
-      </c>
-      <c r="F4" s="9">
-        <f ca="1">+E4+1</f>
-        <v>44016</v>
-      </c>
-      <c r="G4" s="9">
-        <f ca="1">+F4+1</f>
-        <v>44017</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <f>+D4-D3</f>
-        <v>262</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M13" s="3"/>
+      <c r="N13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="M9" s="3"/>
-      <c r="N9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="3:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6">
+        <f ca="1">+TODAY()+D3</f>
+        <v>43662</v>
+      </c>
+      <c r="I18" s="7">
+        <f ca="1">+H18+1</f>
+        <v>43663</v>
+      </c>
+      <c r="J18" s="7">
+        <f ca="1">+I18+1</f>
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="6">
+        <f ca="1">+TODAY()+D4</f>
+        <v>43668</v>
+      </c>
+      <c r="I19" s="7">
+        <f ca="1">+H19+1</f>
+        <v>43669</v>
+      </c>
+      <c r="J19" s="7">
+        <f ca="1">+I19+1</f>
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H20" s="3"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2409,14 +2470,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
-        <v>47</v>
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2424,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2432,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2440,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2448,76 +2509,76 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2529,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDE7157-ED6E-492D-B24E-1F2F3764D0D9}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2540,41 +2601,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="20">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17">
         <v>2.5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f>+B2</f>
         <v>2.5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="16">
         <v>2.9550000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="20">
+        <v>56</v>
+      </c>
+      <c r="B3" s="17">
         <v>2.4500000000000002</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <f>( (  ((1+B3%/52)^C3)  /  ((1+B2%/52)^C2)  ) ^ (1/(C3-C2))  -1  ) *5200</f>
         <v>2.4000004805384556</v>
       </c>
@@ -2592,152 +2653,152 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="20">
+        <v>57</v>
+      </c>
+      <c r="B4" s="17">
         <v>2.4</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <f t="shared" ref="D4:D13" si="0">( (  ((1+B4%/52)^C4)  /  ((1+B3%/52)^C3)  ) ^ (1/(C4-C3))  -1  ) *5200</f>
         <v>2.3500004805429242</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="20">
+        <v>58</v>
+      </c>
+      <c r="B5" s="17">
         <v>2.4500000000000002</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>2.5000004805479925</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="20">
+        <v>59</v>
+      </c>
+      <c r="B6" s="17">
         <v>2.5</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>2.6000014416339035</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="20">
+        <v>61</v>
+      </c>
+      <c r="B7" s="17">
         <v>2.7</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>3.3000461328466457</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="20">
+        <v>62</v>
+      </c>
+      <c r="B8" s="17">
         <v>2.75</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>2.9500048052440775</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="20">
+        <v>63</v>
+      </c>
+      <c r="B9" s="17">
         <v>2.75</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>2.7500000000001634</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="20">
+        <v>64</v>
+      </c>
+      <c r="B10" s="17">
         <v>2.75</v>
       </c>
       <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>2.7500000000001634</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="20">
+        <v>65</v>
+      </c>
+      <c r="B11" s="17">
         <v>2.9</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>3.3500259483135508</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="20">
+        <v>66</v>
+      </c>
+      <c r="B12" s="17">
         <v>3</v>
       </c>
       <c r="C12">
         <f>4*18</f>
         <v>72</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>3.2000057660521719</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="20">
+        <v>67</v>
+      </c>
+      <c r="B13" s="17">
         <v>3.4</v>
       </c>
       <c r="C13">
         <f>24*4</f>
         <v>96</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>4.6001845183931245</v>
       </c>
